--- a/Remote/ug16/Données/03/dist_fret.xlsx
+++ b/Remote/ug16/Données/03/dist_fret.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\GitHub\ductaironline\ductaironline\Remote\ug16\Données\04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\GitHub\ductaironline\Remote\ug16\Données\04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B210ED12-80FB-421A-A0E6-524ABBB761DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E40AC14-C863-40D4-8617-FFFB2020A6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1EDECED-9E95-488B-807D-F9CDE4DD9B81}"/>
   </bookViews>
@@ -605,7 +605,7 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -950,8 +950,8 @@
   <sheetPr codeName="Feuil6"/>
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5432,40 +5432,40 @@
         <v>200</v>
       </c>
       <c r="C96" s="16">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D96" s="16">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E96" s="16">
-        <v>203</v>
+        <v>400</v>
       </c>
       <c r="F96" s="16">
-        <v>204</v>
+        <v>600</v>
       </c>
       <c r="G96" s="16">
-        <v>205</v>
+        <v>800</v>
       </c>
       <c r="H96" s="16">
-        <v>206</v>
+        <v>1000</v>
       </c>
       <c r="I96" s="16">
-        <v>207</v>
+        <v>1200</v>
       </c>
       <c r="J96" s="16">
-        <v>208</v>
+        <v>1400</v>
       </c>
       <c r="K96" s="16">
-        <v>209</v>
+        <v>1600</v>
       </c>
       <c r="L96" s="16">
-        <v>210</v>
+        <v>1800</v>
       </c>
       <c r="M96" s="16">
-        <v>211</v>
+        <v>2000</v>
       </c>
       <c r="N96" s="16">
-        <v>212</v>
+        <v>2000</v>
       </c>
       <c r="O96" s="12">
         <v>45695</v>
